--- a/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_BPF_Board_BOM_V12.6_03-07-24.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_BPF_Board_BOM_V12.6_03-07-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5201578-4CED-47C0-AB73-7F07FE0839D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E1E253-64F2-402F-927A-177CC4FB4C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,9 +162,6 @@
     <t>J4</t>
   </si>
   <si>
-    <t>C2, C4, C5, C6, C7, C8, C41, C91, C91, C97, C98, C100, C101,C107, C108, C190, C191, C197, C198, C200, C201, C207, C208, C290, C291, C297, C298, C300, C301, C307, C308, C400, C401, C407, C408, C500, C501, C507, C508, C600, C601, C607, C608, C700, C701</t>
-  </si>
-  <si>
     <t>U2, U5, U8, U11, U14, U17, U20, U23, U26, U29, U37</t>
   </si>
   <si>
@@ -802,6 +799,9 @@
   </si>
   <si>
     <t>80-C1206C201J5HAUTO</t>
+  </si>
+  <si>
+    <t>C2, C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C25, C26, C27 C41, C91, C91, C97, C98, C100, C101,C107, C108, C190, C191, C197, C198, C200, C201, C207, C208, C290, C291, C297, C298, C300, C301, C307, C308, C400, C401, C407, C408, C500, C501, C507, C508, C600, C601, C607, C608, C700, C701</t>
   </si>
 </sst>
 </file>
@@ -1822,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1832,7 +1832,7 @@
     <col min="2" max="2" width="31.54296875" style="5" customWidth="1"/>
     <col min="3" max="3" width="30.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.08984375" style="3" customWidth="1"/>
     <col min="8" max="8" width="16.453125" style="3" customWidth="1"/>
@@ -1879,12 +1879,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -1898,10 +1898,10 @@
         <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1909,13 +1909,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1923,10 +1923,10 @@
         <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1934,13 +1934,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1948,10 +1948,10 @@
         <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1959,13 +1959,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1973,13 +1973,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1987,10 +1987,10 @@
         <v>35</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1998,13 +1998,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -2012,13 +2012,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -2026,13 +2026,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -2040,10 +2040,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>31</v>
@@ -2054,13 +2054,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -2068,13 +2068,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -2082,13 +2082,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -2096,10 +2096,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -2107,13 +2107,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -2121,13 +2121,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -2135,10 +2135,10 @@
         <v>35</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>35</v>
@@ -2149,13 +2149,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -2163,13 +2163,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -2177,13 +2177,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -2191,10 +2191,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>30</v>
@@ -2205,13 +2205,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -2219,10 +2219,10 @@
         <v>35</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -2230,10 +2230,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>29</v>
@@ -2244,13 +2244,13 @@
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -2258,13 +2258,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -2272,13 +2272,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -2286,13 +2286,13 @@
         <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -2300,13 +2300,13 @@
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2314,13 +2314,13 @@
         <v>2</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2328,13 +2328,13 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -2342,13 +2342,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -2356,7 +2356,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>13</v>
@@ -2426,13 +2426,13 @@
         <v>2</v>
       </c>
       <c r="B43" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="G43" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2440,13 +2440,13 @@
         <v>2</v>
       </c>
       <c r="B44" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="G44" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -2454,13 +2454,13 @@
         <v>2</v>
       </c>
       <c r="B45" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="G45" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2468,13 +2468,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="G46" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -2482,13 +2482,13 @@
         <v>2</v>
       </c>
       <c r="B47" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="G47" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2496,13 +2496,13 @@
         <v>2</v>
       </c>
       <c r="B48" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="G48" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -2510,13 +2510,13 @@
         <v>2</v>
       </c>
       <c r="B49" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="G49" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2524,13 +2524,13 @@
         <v>2</v>
       </c>
       <c r="B50" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="G50" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -2538,13 +2538,13 @@
         <v>3</v>
       </c>
       <c r="B51" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="G51" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -2552,13 +2552,13 @@
         <v>2</v>
       </c>
       <c r="B52" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="G52" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -2566,13 +2566,13 @@
         <v>2</v>
       </c>
       <c r="B53" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="G53" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -2580,13 +2580,13 @@
         <v>2</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -2594,13 +2594,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="G55" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -2608,13 +2608,13 @@
         <v>1</v>
       </c>
       <c r="B56" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="G56" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -2622,13 +2622,13 @@
         <v>1</v>
       </c>
       <c r="B57" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="G57" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -2636,13 +2636,13 @@
         <v>2</v>
       </c>
       <c r="B58" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="G58" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -2650,13 +2650,13 @@
         <v>2</v>
       </c>
       <c r="B59" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="G59" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -2664,13 +2664,13 @@
         <v>2</v>
       </c>
       <c r="B60" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="G60" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -2678,13 +2678,13 @@
         <v>1</v>
       </c>
       <c r="B61" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="G61" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -2692,13 +2692,13 @@
         <v>3</v>
       </c>
       <c r="B62" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="G62" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -2706,13 +2706,13 @@
         <v>2</v>
       </c>
       <c r="B63" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="G63" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -2720,13 +2720,13 @@
         <v>2</v>
       </c>
       <c r="B64" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="G64" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
@@ -2734,16 +2734,16 @@
         <v>1</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
@@ -2751,7 +2751,7 @@
         <v>6</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>12</v>
@@ -2782,10 +2782,10 @@
         <v>5</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="62" x14ac:dyDescent="0.35">
@@ -2793,7 +2793,7 @@
         <v>21</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>7</v>
@@ -2807,7 +2807,7 @@
         <v>11</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>6</v>
@@ -2821,7 +2821,7 @@
         <v>19</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>37</v>
@@ -2832,7 +2832,7 @@
         <v>6</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>37</v>
@@ -2843,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>37</v>
@@ -2854,7 +2854,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>37</v>
@@ -2865,7 +2865,7 @@
         <v>13</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>37</v>
@@ -2876,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>37</v>
@@ -2887,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>37</v>
@@ -2932,114 +2932,114 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="T1" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="M1" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="N1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="O1" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>205</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>206</v>
       </c>
       <c r="W1" s="18"/>
       <c r="X1" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF1" s="16" t="s">
         <v>198</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>199</v>
       </c>
       <c r="AG1" s="18"/>
       <c r="AH1" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL1" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="15">
@@ -3095,13 +3095,13 @@
       </c>
       <c r="W2" s="18"/>
       <c r="X2" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AA2" s="15">
         <v>0.49</v>
@@ -3125,24 +3125,24 @@
       </c>
       <c r="AG2" s="18"/>
       <c r="AH2" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AJ2" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AL2" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AM2" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="7">
@@ -3189,12 +3189,12 @@
         <v>0.52</v>
       </c>
       <c r="AJ3" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="7">
@@ -3244,16 +3244,16 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="17">
@@ -3357,7 +3357,7 @@
         <v>4</v>
       </c>
       <c r="AL6" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM6" s="7">
         <v>19</v>
@@ -3368,10 +3368,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="17">
@@ -3475,7 +3475,7 @@
         <v>10</v>
       </c>
       <c r="AL7" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AM7" s="7">
         <v>6</v>
@@ -3486,10 +3486,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="17">
@@ -3593,7 +3593,7 @@
         <v>14</v>
       </c>
       <c r="AL8" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM8" s="7">
         <v>1</v>
@@ -3604,10 +3604,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="17">
@@ -3711,7 +3711,7 @@
         <v>27</v>
       </c>
       <c r="AL9" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM9" s="7">
         <v>4</v>
@@ -3722,10 +3722,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="17">
@@ -3829,7 +3829,7 @@
         <v>9</v>
       </c>
       <c r="AL10" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AM10" s="7">
         <v>13</v>
@@ -3840,10 +3840,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="17">
@@ -3947,7 +3947,7 @@
         <v>18</v>
       </c>
       <c r="AL11" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM11" s="7">
         <v>2</v>
@@ -3958,10 +3958,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="10">
@@ -4074,10 +4074,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="10">
@@ -4186,10 +4186,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="10">
@@ -4302,10 +4302,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="10">
@@ -4418,10 +4418,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="10">
@@ -4534,10 +4534,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="10">
@@ -4650,10 +4650,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="10">
@@ -4759,10 +4759,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="10">
@@ -4874,10 +4874,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="10">
@@ -4981,10 +4981,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="10">
@@ -5088,10 +5088,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="10">
@@ -5204,10 +5204,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="10">
@@ -5322,10 +5322,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="10">
@@ -5439,10 +5439,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="10">
@@ -5561,10 +5561,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="10">
@@ -5684,10 +5684,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="10">
@@ -5806,10 +5806,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="10">
@@ -5947,14 +5947,14 @@
         <v>523.07999999999993</v>
       </c>
       <c r="AK30" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL30" s="10">
         <f>AJ30/12</f>
         <v>43.589999999999996</v>
       </c>
       <c r="AM30" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
